--- a/front-end/src/components/FileUploadForm/data_training.xlsx
+++ b/front-end/src/components/FileUploadForm/data_training.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0.Coding\University_senior\House_Price_Prediction_BE\front-end\src\components\FileUploadForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>district</t>
   </si>
@@ -36,124 +36,115 @@
     <t>type</t>
   </si>
   <si>
-    <t>district_huyen-binh-chanh</t>
-  </si>
-  <si>
-    <t>district_quan-11</t>
-  </si>
-  <si>
-    <t>district_quan-10</t>
-  </si>
-  <si>
-    <t>district_quan-1</t>
-  </si>
-  <si>
-    <t>district_huyen-nha-be</t>
-  </si>
-  <si>
-    <t>district_huyen-hoc-mon</t>
-  </si>
-  <si>
-    <t>district_huyen-cu-chi</t>
-  </si>
-  <si>
-    <t>district_quan-12</t>
-  </si>
-  <si>
-    <t>district_quan-2</t>
-  </si>
-  <si>
-    <t>district_quan-3</t>
-  </si>
-  <si>
-    <t>district_quan-5</t>
-  </si>
-  <si>
-    <t>district_quan-4</t>
-  </si>
-  <si>
-    <t>district_quan-6</t>
-  </si>
-  <si>
-    <t>district_quan-7</t>
-  </si>
-  <si>
-    <t>district_quan-9</t>
-  </si>
-  <si>
-    <t>district_quan-8</t>
-  </si>
-  <si>
-    <t>district_quan-binh-tan</t>
-  </si>
-  <si>
-    <t>district_quan-binh-thanh</t>
-  </si>
-  <si>
-    <t>type_thue-can-ho-chung-cu</t>
-  </si>
-  <si>
-    <t>type_thue-can-ho-dich-vu</t>
-  </si>
-  <si>
-    <t>type_thue-can-ho-officetel</t>
-  </si>
-  <si>
-    <t>type_thue-can-ho-penthouse</t>
-  </si>
-  <si>
-    <t>type_thue-can-ho-tap-the-cu-xa</t>
-  </si>
-  <si>
-    <t>type_thue-cua-hang-shop-shophouse</t>
-  </si>
-  <si>
-    <t>type_thue-dat-trong</t>
-  </si>
-  <si>
-    <t>type_thue-mat-bang-cua-hang-shop-cafe-do-uong</t>
-  </si>
-  <si>
-    <t>type_thue-duong-noi-bo</t>
-  </si>
-  <si>
-    <t>type_thue-mat-bang-cua-hang-shop-nhieu-muc-dich</t>
-  </si>
-  <si>
-    <t>type_thue-mat-bang-cua-hang-shop-quan-an-nha-hang</t>
-  </si>
-  <si>
-    <t>type_thue-mat-bang-cua-hang-shop-thoi-trang-my-pham-thuoc</t>
-  </si>
-  <si>
-    <t>type_thue-nha-biet-thu-lien-ke</t>
-  </si>
-  <si>
-    <t>type_thue-nha-hem-ngo</t>
-  </si>
-  <si>
-    <t>type_thue-nha-mat-tien-pho</t>
-  </si>
-  <si>
-    <t>type_thue-nha-kho</t>
-  </si>
-  <si>
-    <t>type_thue-nha-xuong</t>
-  </si>
-  <si>
-    <t>type_thue-phong-tro-khu-nha-tro</t>
-  </si>
-  <si>
-    <t>type_thue-phong-tro-loi-di-rieng</t>
-  </si>
-  <si>
-    <t>type_thue-van-phong-toa-nha-cao-oc</t>
-  </si>
-  <si>
-    <t>type_thue-van-phong-nha-rieng-can-ho</t>
-  </si>
-  <si>
-    <t>type_thue-van-phong-tt-thuong-mai</t>
+    <t>huyen-binh-chanh</t>
+  </si>
+  <si>
+    <t>huyen-cu-chi</t>
+  </si>
+  <si>
+    <t>huyen-hoc-mon</t>
+  </si>
+  <si>
+    <t>huyen-nha-be</t>
+  </si>
+  <si>
+    <t>quan-10</t>
+  </si>
+  <si>
+    <t>quan-1</t>
+  </si>
+  <si>
+    <t>quan-11</t>
+  </si>
+  <si>
+    <t>quan-2</t>
+  </si>
+  <si>
+    <t>quan-12</t>
+  </si>
+  <si>
+    <t>quan-3</t>
+  </si>
+  <si>
+    <t>quan-4</t>
+  </si>
+  <si>
+    <t>quan-5</t>
+  </si>
+  <si>
+    <t>quan-7</t>
+  </si>
+  <si>
+    <t>quan-8</t>
+  </si>
+  <si>
+    <t>quan-6</t>
+  </si>
+  <si>
+    <t>quan-9</t>
+  </si>
+  <si>
+    <t>quan-binh-tan</t>
+  </si>
+  <si>
+    <t>quan-binh-thanh</t>
+  </si>
+  <si>
+    <t>thue-can-ho-chung-cu</t>
+  </si>
+  <si>
+    <t>thue-can-ho-dich-vu</t>
+  </si>
+  <si>
+    <t>thue-can-ho-penthouse</t>
+  </si>
+  <si>
+    <t>thue-can-ho-officetel</t>
+  </si>
+  <si>
+    <t>thue-can-ho-tap-the-cu-xa</t>
+  </si>
+  <si>
+    <t>thue-cua-hang-shop-shophouse</t>
+  </si>
+  <si>
+    <t>thue-duong-noi-bo</t>
+  </si>
+  <si>
+    <t>thue-mat-bang-cua-hang-shop-cafe-do-uong</t>
+  </si>
+  <si>
+    <t>thue-mat-bang-cua-hang-shop-nhieu-muc-dich</t>
+  </si>
+  <si>
+    <t>thue-mat-bang-cua-hang-shop-quan-an-nha-hang</t>
+  </si>
+  <si>
+    <t>thue-nha-biet-thu-lien-ke</t>
+  </si>
+  <si>
+    <t>thue-nha-hem-ngo</t>
+  </si>
+  <si>
+    <t>thue-nha-mat-tien-pho</t>
+  </si>
+  <si>
+    <t>thue-phong-tro-khu-nha-tro</t>
+  </si>
+  <si>
+    <t>thue-phong-tro-loi-di-rieng</t>
+  </si>
+  <si>
+    <t>quan-phu-nhuan</t>
+  </si>
+  <si>
+    <t>quan-tan-binh</t>
+  </si>
+  <si>
+    <t>quan-tan-phu</t>
+  </si>
+  <si>
+    <t>quan-thu-duc</t>
   </si>
 </sst>
 </file>
@@ -646,9 +637,6 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -659,6 +647,9 @@
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -984,514 +975,520 @@
   <dimension ref="A1:E1813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
         <v>25</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>150</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>125</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>80</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>85</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>95</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3">
-        <v>70</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>100</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>130</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>180</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3">
-        <v>161</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3">
-        <v>125</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3">
-        <v>80</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="5"/>
+      <c r="B233" s="4"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" s="5"/>
+      <c r="B253" s="4"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B343" s="5"/>
+      <c r="B343" s="4"/>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B415" s="5"/>
+      <c r="B415" s="4"/>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B471" s="5"/>
+      <c r="B471" s="4"/>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B524" s="5"/>
+      <c r="B524" s="4"/>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B557" s="5"/>
+      <c r="B557" s="4"/>
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B668" s="5"/>
+      <c r="B668" s="4"/>
     </row>
     <row r="690" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B690" s="5"/>
+      <c r="B690" s="4"/>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B842" s="5"/>
+      <c r="B842" s="4"/>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B858" s="5"/>
+      <c r="B858" s="4"/>
     </row>
     <row r="878" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B878" s="5"/>
+      <c r="B878" s="4"/>
     </row>
     <row r="898" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B898" s="5"/>
+      <c r="B898" s="4"/>
     </row>
     <row r="937" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B937" s="5"/>
+      <c r="B937" s="4"/>
     </row>
     <row r="1024" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1024" s="5"/>
+      <c r="B1024" s="4"/>
     </row>
     <row r="1025" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1025" s="5"/>
+      <c r="B1025" s="4"/>
     </row>
     <row r="1026" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1026" s="5"/>
+      <c r="B1026" s="4"/>
     </row>
     <row r="1027" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1027" s="5"/>
+      <c r="B1027" s="4"/>
     </row>
     <row r="1046" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1046" s="5"/>
+      <c r="B1046" s="4"/>
     </row>
     <row r="1052" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1052" s="5"/>
+      <c r="B1052" s="4"/>
     </row>
     <row r="1057" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1057" s="5"/>
+      <c r="B1057" s="4"/>
     </row>
     <row r="1078" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1078" s="5"/>
+      <c r="B1078" s="4"/>
     </row>
     <row r="1202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1202" s="5"/>
+      <c r="B1202" s="4"/>
     </row>
     <row r="1204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1204" s="5"/>
+      <c r="B1204" s="4"/>
     </row>
     <row r="1305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1305" s="5"/>
+      <c r="B1305" s="4"/>
     </row>
     <row r="1340" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1340" s="5"/>
+      <c r="B1340" s="4"/>
     </row>
     <row r="1377" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1377" s="5"/>
+      <c r="B1377" s="4"/>
     </row>
     <row r="1381" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1381" s="5"/>
+      <c r="B1381" s="4"/>
     </row>
     <row r="1445" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1445" s="5"/>
+      <c r="B1445" s="4"/>
     </row>
     <row r="1446" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1446" s="5"/>
+      <c r="B1446" s="4"/>
     </row>
     <row r="1451" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1451" s="5"/>
+      <c r="B1451" s="4"/>
     </row>
     <row r="1472" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1472" s="5"/>
+      <c r="B1472" s="4"/>
     </row>
     <row r="1474" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1474" s="5"/>
+      <c r="B1474" s="4"/>
     </row>
     <row r="1477" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1477" s="5"/>
+      <c r="B1477" s="4"/>
     </row>
     <row r="1478" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1478" s="5"/>
+      <c r="B1478" s="4"/>
     </row>
     <row r="1483" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1483" s="5"/>
+      <c r="B1483" s="4"/>
     </row>
     <row r="1508" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1508" s="5"/>
+      <c r="B1508" s="4"/>
     </row>
     <row r="1510" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1510" s="5"/>
+      <c r="B1510" s="4"/>
     </row>
     <row r="1525" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1525" s="5"/>
+      <c r="B1525" s="4"/>
     </row>
     <row r="1526" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1526" s="5"/>
+      <c r="B1526" s="4"/>
     </row>
     <row r="1564" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1564" s="5"/>
+      <c r="B1564" s="4"/>
     </row>
     <row r="1595" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1595" s="5"/>
+      <c r="B1595" s="4"/>
     </row>
     <row r="1607" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1607" s="5"/>
+      <c r="B1607" s="4"/>
     </row>
     <row r="1608" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1608" s="5"/>
+      <c r="B1608" s="4"/>
     </row>
     <row r="1612" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1612" s="5"/>
+      <c r="B1612" s="4"/>
     </row>
     <row r="1642" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1642" s="5"/>
+      <c r="B1642" s="4"/>
     </row>
     <row r="1643" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1643" s="5"/>
+      <c r="B1643" s="4"/>
     </row>
     <row r="1665" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1665" s="5"/>
+      <c r="B1665" s="4"/>
     </row>
     <row r="1745" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1745" s="5"/>
+      <c r="B1745" s="4"/>
     </row>
     <row r="1794" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1794" s="5"/>
+      <c r="B1794" s="4"/>
     </row>
     <row r="1813" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1813" s="5"/>
+      <c r="B1813" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
